--- a/bots/crawl_ch/output/vegi_coop_2022-08-02.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2022-08-02.xlsx
@@ -585,7 +585,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,7 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2653,7 +2653,7 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3545,7 +3545,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3603,7 +3603,7 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3677,7 +3677,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4199,7 +4199,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4273,7 +4273,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4343,7 +4343,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4643,7 +4643,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4865,7 +4865,7 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5087,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5239,7 +5239,7 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5457,7 +5457,7 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5527,7 +5527,7 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5823,7 +5823,7 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5897,7 +5897,7 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6045,7 +6045,7 @@
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6099,7 +6099,7 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6173,7 +6173,7 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6395,7 +6395,7 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6469,7 +6469,7 @@
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6543,7 +6543,7 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6617,7 +6617,7 @@
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6695,7 +6695,7 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6769,7 @@
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6999,7 +6999,7 @@
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7073,7 +7073,7 @@
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7221,7 +7221,7 @@
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7295,7 +7295,7 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7369,7 +7369,7 @@
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7443,7 @@
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7595,7 +7595,7 @@
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7669,7 +7669,7 @@
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7743,7 +7743,7 @@
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7817,7 +7817,7 @@
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7891,7 +7891,7 @@
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7965,7 +7965,7 @@
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8017,7 +8017,7 @@
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8087,7 +8087,7 @@
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8161,7 +8161,7 @@
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8235,7 +8235,7 @@
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8309,7 +8309,7 @@
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8383,7 +8383,7 @@
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8457,7 +8457,7 @@
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8609,7 +8609,7 @@
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8683,7 +8683,7 @@
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8757,7 +8757,7 @@
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8907,7 +8907,7 @@
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8981,7 +8981,7 @@
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9055,7 +9055,7 @@
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9203,7 +9203,7 @@
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9277,7 +9277,7 @@
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9425,7 +9425,7 @@
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9503,7 +9503,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9577,7 +9577,7 @@
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9651,7 +9651,7 @@
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9725,7 +9725,7 @@
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9799,7 +9799,7 @@
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9873,7 @@
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9947,7 +9947,7 @@
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10021,7 +10021,7 @@
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10095,7 +10095,7 @@
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10173,7 +10173,7 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10247,7 +10247,7 @@
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10321,7 +10321,7 @@
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10399,7 +10399,7 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10477,7 +10477,7 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10625,7 +10625,7 @@
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10699,7 +10699,7 @@
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10773,7 +10773,7 @@
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10847,7 +10847,7 @@
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10921,7 +10921,7 @@
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10999,7 +10999,7 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11073,7 +11073,7 @@
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11145,7 +11145,7 @@
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11219,7 +11219,7 @@
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11297,7 +11297,7 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11371,7 +11371,7 @@
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11445,7 +11445,7 @@
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11519,7 +11519,7 @@
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11593,7 +11593,7 @@
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11667,7 +11667,7 @@
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11741,7 +11741,7 @@
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11815,7 +11815,7 @@
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11887,7 +11887,7 @@
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11961,7 +11961,7 @@
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12035,7 +12035,7 @@
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12187,7 +12187,7 @@
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12261,7 +12261,7 @@
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12335,7 +12335,7 @@
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12409,7 +12409,7 @@
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12483,7 +12483,7 @@
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12561,7 +12561,7 @@
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12619,7 +12619,7 @@
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12677,7 +12677,7 @@
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12751,7 +12751,7 @@
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12825,7 +12825,7 @@
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12899,7 +12899,7 @@
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12973,7 +12973,7 @@
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13047,7 +13047,7 @@
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13121,7 +13121,7 @@
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13193,7 +13193,7 @@
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13267,7 +13267,7 @@
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13341,7 +13341,7 @@
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13415,7 +13415,7 @@
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13489,7 +13489,7 @@
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13563,7 +13563,7 @@
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13641,7 +13641,7 @@
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13715,7 +13715,7 @@
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13867,7 +13867,7 @@
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13941,7 +13941,7 @@
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14019,7 +14019,7 @@
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14093,7 +14093,7 @@
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14167,7 +14167,7 @@
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14245,7 +14245,7 @@
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14319,7 +14319,7 @@
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14393,7 @@
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14467,7 +14467,7 @@
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14541,7 +14541,7 @@
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14619,7 +14619,7 @@
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14697,7 +14697,7 @@
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14771,7 +14771,7 @@
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14849,7 +14849,7 @@
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14927,7 +14927,7 @@
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15001,7 +15001,7 @@
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15075,7 +15075,7 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15153,7 +15153,7 @@
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15227,7 +15227,7 @@
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15285,7 +15285,7 @@
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15359,7 +15359,7 @@
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15433,7 +15433,7 @@
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15509,7 +15509,7 @@
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15583,7 +15583,7 @@
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15657,7 +15657,7 @@
       <c r="O206" t="inlineStr"/>
       <c r="P206" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15731,7 +15731,7 @@
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15809,7 +15809,7 @@
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15881,7 +15881,7 @@
       <c r="O209" t="inlineStr"/>
       <c r="P209" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15955,7 +15955,7 @@
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16029,36 +16029,34 @@
       <c r="O211" t="inlineStr"/>
       <c r="P211" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>6378900</t>
+          <t>6236682</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Haselnüsse ganz</t>
+          <t>Pro Montagna Himbeeren</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/nuesse-kerne/naturaplan-bio-haselnuesse-ganz/p/6378900</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/beeren/pro-montagna-himbeeren/p/6236682</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>200g</t>
-        </is>
-      </c>
-      <c r="E212" t="n">
-        <v>3</v>
-      </c>
+          <t>180g</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
       <c r="F212" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -16067,12 +16065,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>2.10/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -16082,7 +16080,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -16092,45 +16090,47 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'nuesse-kerne']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'beeren']</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Haselnüsse ganz 4.20 Schweizer Franken</t>
+          <t>Pro Montagna Himbeeren 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>5615871</t>
+          <t>6378900</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Tomaten Gustosa</t>
+          <t>Naturaplan Bio Haselnüsse ganz</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/naturaplan-bio-tomaten-gustosa/p/5615871</t>
+          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/nuesse-kerne/naturaplan-bio-haselnuesse-ganz/p/6378900</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>300g</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr"/>
+          <t>200g</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>3</v>
+      </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -16139,12 +16139,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.10/100g</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -16154,7 +16154,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -16164,47 +16164,45 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'nuesse-kerne']</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Tomaten Gustosa 5.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Haselnüsse ganz 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>7003348</t>
+          <t>5615871</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Spargel Broccoli Bimi</t>
+          <t>Naturaplan Bio Tomaten Gustosa</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/spargel-broccoli-bimi/p/7003348</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/naturaplan-bio-tomaten-gustosa/p/5615871</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>200g</t>
-        </is>
-      </c>
-      <c r="E214" t="n">
-        <v>3</v>
-      </c>
+          <t>300g</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr"/>
       <c r="F214" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -16213,12 +16211,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>2.48/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -16228,7 +16226,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -16238,47 +16236,47 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>Spargel Broccoli Bimi 4.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Tomaten Gustosa 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>6649015</t>
+          <t>7003348</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linsensalat</t>
+          <t>Spargel Broccoli Bimi</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/naturaplan-bio-linsensalat/p/6649015</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/spargel-broccoli-bimi/p/7003348</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>220g</t>
+          <t>200g</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F215" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -16287,12 +16285,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>2.48/100g</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -16302,7 +16300,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -16312,49 +16310,47 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linsensalat 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O215" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Spargel Broccoli Bimi 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>6236682</t>
+          <t>6649015</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Pro Montagna Himbeeren</t>
+          <t>Naturaplan Bio Linsensalat</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/beeren/pro-montagna-himbeeren/p/6236682</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/naturaplan-bio-linsensalat/p/6649015</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>180g</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr"/>
+          <t>220g</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>4</v>
+      </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -16363,12 +16359,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -16378,7 +16374,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -16388,18 +16384,22 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'beeren']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>Pro Montagna Himbeeren 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O216" t="inlineStr"/>
+          <t>Naturaplan Bio Linsensalat 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P216" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16477,7 +16477,7 @@
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16551,7 +16551,7 @@
       <c r="O218" t="inlineStr"/>
       <c r="P218" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16625,7 +16625,7 @@
       <c r="O219" t="inlineStr"/>
       <c r="P219" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16703,7 +16703,7 @@
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16777,7 +16777,7 @@
       <c r="O221" t="inlineStr"/>
       <c r="P221" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16851,7 +16851,7 @@
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16925,7 +16925,7 @@
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17003,7 +17003,7 @@
       </c>
       <c r="P224" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17075,7 +17075,7 @@
       <c r="O225" t="inlineStr"/>
       <c r="P225" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17149,7 +17149,7 @@
       <c r="O226" t="inlineStr"/>
       <c r="P226" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17223,7 +17223,7 @@
       <c r="O227" t="inlineStr"/>
       <c r="P227" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17375,7 +17375,7 @@
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17449,7 +17449,7 @@
       <c r="O230" t="inlineStr"/>
       <c r="P230" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17525,36 +17525,36 @@
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>5793387</t>
+          <t>3425371</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Mesclun-Salat</t>
+          <t>Naturaplan Bio Äpfel ca. 750g</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-naturaplan-bio-mesclun-salat/p/5793387</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-aepfel-ca/p/3425371</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>750g</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F232" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -17563,12 +17563,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>4.50/100g</t>
+          <t>0.63/100g</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -17578,7 +17578,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -17588,51 +17588,47 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Mesclun-Salat 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O232" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Äpfel ca. 750g 4.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr"/>
       <c r="P232" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>3425371</t>
+          <t>5793387</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Äpfel ca. 750g</t>
+          <t>Betty Bossi Naturaplan Bio Mesclun-Salat</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-aepfel-ca/p/3425371</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-naturaplan-bio-mesclun-salat/p/5793387</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>750g</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F233" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -17641,12 +17637,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>0.63/100g</t>
+          <t>4.50/100g</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -17656,7 +17652,7 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -17666,18 +17662,22 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Äpfel ca. 750g 4.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O233" t="inlineStr"/>
+          <t>Betty Bossi Naturaplan Bio Mesclun-Salat 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17751,7 +17751,7 @@
       <c r="O234" t="inlineStr"/>
       <c r="P234" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17903,7 +17903,7 @@
       <c r="O236" t="inlineStr"/>
       <c r="P236" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17981,7 +17981,7 @@
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18055,7 +18055,7 @@
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18127,7 +18127,7 @@
       <c r="O239" t="inlineStr"/>
       <c r="P239" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18205,7 +18205,7 @@
       </c>
       <c r="P240" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18283,7 +18283,7 @@
       </c>
       <c r="P241" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18361,33 +18361,33 @@
       </c>
       <c r="P242" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>5644578</t>
+          <t>3560364</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Grill-Champignons</t>
+          <t>Kopfsalat rot 1 Stück</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/grill-champignons/p/5644578</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/kopfsalat-rot-1-stueck/p/3560364</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>350g</t>
+          <t>300g</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F243" t="n">
         <v>3.5</v>
@@ -18399,12 +18399,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -18414,7 +18414,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -18424,44 +18424,44 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>Grill-Champignons 4.95 Schweizer Franken</t>
+          <t>Kopfsalat rot 1 Stück 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O243" t="inlineStr"/>
       <c r="P243" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>3560364</t>
+          <t>5644578</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Kopfsalat rot 1 Stück</t>
+          <t>Grill-Champignons</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/kopfsalat-rot-1-stueck/p/3560364</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/grill-champignons/p/5644578</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>300g</t>
+          <t>350g</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F244" t="n">
         <v>3.5</v>
@@ -18473,12 +18473,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -18488,7 +18488,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -18498,18 +18498,18 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>Kopfsalat rot 1 Stück 1.95 Schweizer Franken</t>
+          <t>Grill-Champignons 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O244" t="inlineStr"/>
       <c r="P244" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18583,7 +18583,7 @@
       <c r="O245" t="inlineStr"/>
       <c r="P245" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18661,7 +18661,7 @@
       </c>
       <c r="P246" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18739,7 +18739,7 @@
       </c>
       <c r="P247" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18813,7 +18813,7 @@
       <c r="O248" t="inlineStr"/>
       <c r="P248" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18887,7 +18887,7 @@
       <c r="O249" t="inlineStr"/>
       <c r="P249" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18959,7 +18959,7 @@
       <c r="O250" t="inlineStr"/>
       <c r="P250" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -19037,7 +19037,7 @@
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -19113,7 +19113,7 @@
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -19187,36 +19187,36 @@
       <c r="O253" t="inlineStr"/>
       <c r="P253" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>3406199</t>
+          <t>4845993</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Betty Bossi Zitronengras 1 Pack</t>
+          <t>Naturaplan Bio Brombeeren</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/betty-bossi-zitronengras-1-pack/p/3406199</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/beeren/naturaplan-bio-brombeeren/p/4845993</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>35g</t>
+          <t>200g</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F254" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -19225,12 +19225,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>8.43/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -19250,48 +19250,44 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'beeren']</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>Betty Bossi Zitronengras 1 Pack 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O254" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Brombeeren 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr"/>
       <c r="P254" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>6315279</t>
+          <t>3406199</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Knollensellerie ca. 400g</t>
+          <t>Betty Bossi Zitronengras 1 Pack</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/sellerie-kohlrabi/naturaplan-bio-knollensellerie-ca/p/6315279</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/betty-bossi-zitronengras-1-pack/p/3406199</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>400g</t>
+          <t>35g</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F255" t="n">
         <v>4.5</v>
@@ -19303,12 +19299,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>0.60/100g</t>
+          <t>8.43/100g</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -19318,7 +19314,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -19328,47 +19324,51 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'sellerie-kohlrabi']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Knollensellerie ca. 400g 2.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O255" t="inlineStr"/>
+          <t>Betty Bossi Zitronengras 1 Pack 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="P255" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>3385979</t>
+          <t>6315279</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mischsalat</t>
+          <t>Naturaplan Bio Knollensellerie ca. 400g</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-mischsalat/p/3385979</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/sellerie-kohlrabi/naturaplan-bio-knollensellerie-ca/p/6315279</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>250g</t>
+          <t>400g</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F256" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -19377,12 +19377,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>1.68/100g</t>
+          <t>0.60/100g</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -19392,7 +19392,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -19402,51 +19402,47 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'sellerie-kohlrabi']</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mischsalat 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O256" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Knollensellerie ca. 400g 2.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr"/>
       <c r="P256" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>4827283</t>
+          <t>3385979</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Prix Garantie Schalotten</t>
+          <t>Naturaplan Bio Mischsalat</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/zwiebeln-knoblauch/prix-garantie-schalotten/p/4827283</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-mischsalat/p/3385979</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>500g</t>
+          <t>250g</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F257" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -19455,12 +19451,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>0.30/100g</t>
+          <t>1.68/100g</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -19470,7 +19466,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -19480,47 +19476,51 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'zwiebeln-knoblauch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>Prix Garantie Schalotten 1.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O257" t="inlineStr"/>
+          <t>Naturaplan Bio Mischsalat 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="P257" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>4845993</t>
+          <t>4827283</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Brombeeren</t>
+          <t>Prix Garantie Schalotten</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/beeren/naturaplan-bio-brombeeren/p/4845993</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/zwiebeln-knoblauch/prix-garantie-schalotten/p/4827283</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>200g</t>
+          <t>500g</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F258" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -19529,12 +19529,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>0.30/100g</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -19544,7 +19544,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -19554,18 +19554,18 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'beeren']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'zwiebeln-knoblauch']</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Brombeeren 5.95 Schweizer Franken</t>
+          <t>Prix Garantie Schalotten 1.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O258" t="inlineStr"/>
       <c r="P258" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -19639,7 +19639,7 @@
       <c r="O259" t="inlineStr"/>
       <c r="P259" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -19717,7 +19717,7 @@
       </c>
       <c r="P260" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -19791,159 +19791,159 @@
       <c r="O261" t="inlineStr"/>
       <c r="P261" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>6717907</t>
+          <t>3934808</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Beyond Mince</t>
+          <t>Primagusto Kartoffeln Celtiane</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/beyond-mince/p/6717907</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/primagusto-kartoffeln-celtiane/p/3934808</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>300g</t>
+          <t>1.5kg</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="F262" t="n">
         <v>5</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>BEYOND MEAT</t>
+          <t>Primagusto</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>1.97/1kg</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>Beyond Mince 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O262" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Primagusto Kartoffeln Celtiane 40% Aktion 2.95 Schweizer Franken statt 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr"/>
       <c r="P262" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>3934808</t>
+          <t>6717907</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Primagusto Kartoffeln Celtiane</t>
+          <t>Beyond Mince</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/primagusto-kartoffeln-celtiane/p/3934808</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/beyond-mince/p/6717907</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>1.5kg</t>
+          <t>300g</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c r="F263" t="n">
         <v>5</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Primagusto</t>
+          <t>BEYOND MEAT</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>1.97/1kg</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>Primagusto Kartoffeln Celtiane 40% Aktion 2.95 Schweizer Franken statt 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O263" t="inlineStr"/>
+          <t>Beyond Mince 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="P263" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20021,7 +20021,7 @@
       </c>
       <c r="P264" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20099,7 +20099,7 @@
       </c>
       <c r="P265" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20173,7 +20173,7 @@
       <c r="O266" t="inlineStr"/>
       <c r="P266" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20247,7 +20247,7 @@
       <c r="O267" t="inlineStr"/>
       <c r="P267" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20321,36 +20321,36 @@
       <c r="O268" t="inlineStr"/>
       <c r="P268" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>3388940</t>
+          <t>6660162</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Betty Bossi Mischsalat</t>
+          <t>Naturaplan Bio Feigen</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-mischsalat/p/3388940</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-gartenfruechte/naturaplan-bio-feigen/p/6660162</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>450g</t>
+          <t>400g</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="F269" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -20359,12 +20359,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>0.93/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -20384,51 +20384,47 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-gartenfruechte']</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>Betty Bossi Mischsalat 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O269" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Feigen 7.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O269" t="inlineStr"/>
       <c r="P269" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>6660162</t>
+          <t>3388940</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Feigen</t>
+          <t>Betty Bossi Mischsalat</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-gartenfruechte/naturaplan-bio-feigen/p/6660162</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-mischsalat/p/3388940</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>400g</t>
+          <t>450g</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="F270" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -20437,12 +20433,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>0.93/100g</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -20452,7 +20448,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -20462,18 +20458,22 @@
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-gartenfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Feigen 7.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O270" t="inlineStr"/>
+          <t>Betty Bossi Mischsalat 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="P270" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20551,7 +20551,7 @@
       </c>
       <c r="P271" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20625,7 +20625,7 @@
       <c r="O272" t="inlineStr"/>
       <c r="P272" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20699,7 +20699,7 @@
       <c r="O273" t="inlineStr"/>
       <c r="P273" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20773,7 +20773,7 @@
       <c r="O274" t="inlineStr"/>
       <c r="P274" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20851,7 +20851,7 @@
       </c>
       <c r="P275" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20925,7 +20925,7 @@
       <c r="O276" t="inlineStr"/>
       <c r="P276" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21003,7 +21003,7 @@
       </c>
       <c r="P277" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21081,7 +21081,7 @@
       </c>
       <c r="P278" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21155,114 +21155,114 @@
       <c r="O279" t="inlineStr"/>
       <c r="P279" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>6073235</t>
+          <t>3633411</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>festivo geräucherter Stick VEGAN</t>
+          <t>Eichblatt-Salat rot 1 Stück</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/festivo-geraeucherter-stick-vegan/p/6073235</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/eichblatt-salat-rot-1-stueck/p/3633411</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>70g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F280" t="n">
         <v>5</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>festivo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>4.21/100g</t>
+          <t>1.95/1ST</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>festivo geräucherter Stick VEGAN 2.95 Schweizer Franken</t>
+          <t>Eichblatt-Salat rot 1 Stück 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="P280" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>3633411</t>
+          <t>3091438</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Eichblatt-Salat rot 1 Stück</t>
+          <t>Naturaplan Bio Baumnüsse 400g</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/eichblatt-salat-rot-1-stueck/p/3633411</t>
+          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/nuesse-kerne/naturaplan-bio-baumnuesse/p/3091438</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>400g</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F281" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -21271,90 +21271,86 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>1.95/1ST</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'nuesse-kerne']</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>Eichblatt-Salat rot 1 Stück 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O281" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Baumnüsse 400g 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr"/>
       <c r="P281" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>3091438</t>
+          <t>6073235</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Baumnüsse 400g</t>
+          <t>festivo geräucherter Stick VEGAN</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/nuesse-kerne/naturaplan-bio-baumnuesse/p/3091438</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/festivo-geraeucherter-stick-vegan/p/6073235</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>400g</t>
+          <t>70g</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F282" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>festivo</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>4.21/100g</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -21364,7 +21360,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -21374,18 +21370,22 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'nuesse-kerne']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Baumnüsse 400g 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O282" t="inlineStr"/>
+          <t>festivo geräucherter Stick VEGAN 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P282" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21459,7 +21459,7 @@
       <c r="O283" t="inlineStr"/>
       <c r="P283" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21537,7 +21537,7 @@
       </c>
       <c r="P284" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21611,7 +21611,7 @@
       <c r="O285" t="inlineStr"/>
       <c r="P285" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21685,7 +21685,7 @@
       <c r="O286" t="inlineStr"/>
       <c r="P286" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21759,7 +21759,7 @@
       <c r="O287" t="inlineStr"/>
       <c r="P287" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21837,7 +21837,7 @@
       </c>
       <c r="P288" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21915,7 +21915,7 @@
       </c>
       <c r="P289" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21993,7 +21993,7 @@
       </c>
       <c r="P290" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22067,7 +22067,7 @@
       <c r="O291" t="inlineStr"/>
       <c r="P291" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22141,7 +22141,7 @@
       <c r="O292" t="inlineStr"/>
       <c r="P292" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22215,7 +22215,7 @@
       <c r="O293" t="inlineStr"/>
       <c r="P293" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
       </c>
       <c r="P294" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22361,7 +22361,7 @@
       <c r="O295" t="inlineStr"/>
       <c r="P295" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22435,7 +22435,7 @@
       <c r="O296" t="inlineStr"/>
       <c r="P296" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22507,7 +22507,7 @@
       <c r="O297" t="inlineStr"/>
       <c r="P297" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="P298" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22659,7 +22659,7 @@
       <c r="O299" t="inlineStr"/>
       <c r="P299" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22737,7 +22737,7 @@
       </c>
       <c r="P300" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22815,7 +22815,7 @@
       </c>
       <c r="P301" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22893,7 +22893,7 @@
       </c>
       <c r="P302" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22971,7 +22971,7 @@
       </c>
       <c r="P303" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23045,7 +23045,7 @@
       <c r="O304" t="inlineStr"/>
       <c r="P304" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23119,7 +23119,7 @@
       <c r="O305" t="inlineStr"/>
       <c r="P305" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23197,7 +23197,7 @@
       </c>
       <c r="P306" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23275,7 +23275,7 @@
       </c>
       <c r="P307" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="P308" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23427,7 +23427,7 @@
       </c>
       <c r="P309" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23505,7 +23505,7 @@
       </c>
       <c r="P310" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23583,7 +23583,7 @@
       </c>
       <c r="P311" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23661,7 +23661,7 @@
       </c>
       <c r="P312" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23739,7 +23739,7 @@
       </c>
       <c r="P313" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23813,7 +23813,7 @@
       <c r="O314" t="inlineStr"/>
       <c r="P314" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23891,7 +23891,7 @@
       </c>
       <c r="P315" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23969,7 +23969,7 @@
       </c>
       <c r="P316" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24041,7 +24041,7 @@
       <c r="O317" t="inlineStr"/>
       <c r="P317" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24119,7 +24119,7 @@
       </c>
       <c r="P318" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24193,34 +24193,36 @@
       <c r="O319" t="inlineStr"/>
       <c r="P319" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>6412045</t>
+          <t>4909489</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Lorbeerblätter</t>
+          <t>Betty Bossi Naturaplan Bio Sellerie geraffelt</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/naturaplan-bio-lorbeerblaetter/p/6412045</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-naturaplan-bio-sellerie-geraffelt/p/4909489</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>18g</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr"/>
+          <t>230g</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>33</v>
+      </c>
       <c r="F320" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -24229,12 +24231,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>14.44/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -24244,7 +24246,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>14.44</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -24254,47 +24256,49 @@
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
         </is>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Lorbeerblätter 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O320" t="inlineStr"/>
+          <t>Betty Bossi Naturaplan Bio Sellerie geraffelt - Online kein Bestand 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="P320" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>4909489</t>
+          <t>6412045</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Sellerie geraffelt</t>
+          <t>Naturaplan Bio Lorbeerblätter</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-naturaplan-bio-sellerie-geraffelt/p/4909489</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/naturaplan-bio-lorbeerblaetter/p/6412045</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>230g</t>
-        </is>
-      </c>
-      <c r="E321" t="n">
-        <v>33</v>
-      </c>
+          <t>18g</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr"/>
       <c r="F321" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -24303,12 +24307,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>1.28/100g</t>
+          <t>14.44/100g</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -24318,7 +24322,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -24328,22 +24332,18 @@
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
         </is>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Sellerie geraffelt - Online kein Bestand 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O321" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Lorbeerblätter 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr"/>
       <c r="P321" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24421,7 +24421,7 @@
       </c>
       <c r="P322" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24499,7 +24499,7 @@
       </c>
       <c r="P323" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24573,7 +24573,7 @@
       <c r="O324" t="inlineStr"/>
       <c r="P324" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24647,7 +24647,7 @@
       <c r="O325" t="inlineStr"/>
       <c r="P325" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24725,7 +24725,7 @@
       </c>
       <c r="P326" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24803,36 +24803,34 @@
       </c>
       <c r="P327" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>5868410</t>
+          <t>6638599</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Heringsstücke mit Randen MSC</t>
+          <t>Betty Bossi Taboulé Salat</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/heringsstuecke-mit-randen-msc/p/5868410</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/betty-bossi-taboule-salat/p/6638599</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>150g</t>
-        </is>
-      </c>
-      <c r="E328" t="n">
-        <v>8</v>
-      </c>
+          <t>260g</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr"/>
       <c r="F328" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -24841,12 +24839,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -24856,7 +24854,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -24871,44 +24869,46 @@
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>Heringsstücke mit Randen MSC 2.95 Schweizer Franken</t>
+          <t>Betty Bossi Taboulé Salat 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="P328" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>6638599</t>
+          <t>6649013</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Betty Bossi Taboulé Salat</t>
+          <t>Naturaplan Bio Maissalat</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/betty-bossi-taboule-salat/p/6638599</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/naturaplan-bio-maissalat/p/6649013</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>260g</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr"/>
+          <t>200g</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>1</v>
+      </c>
       <c r="F329" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -24917,12 +24917,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>1.48/100g</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -24932,7 +24932,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -24947,43 +24947,43 @@
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>Betty Bossi Taboulé Salat 4.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Maissalat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="P329" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>6649013</t>
+          <t>5868410</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Maissalat</t>
+          <t>Heringsstücke mit Randen MSC</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/naturaplan-bio-maissalat/p/6649013</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/heringsstuecke-mit-randen-msc/p/5868410</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>200g</t>
+          <t>150g</t>
         </is>
       </c>
       <c r="E330" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F330" t="n">
         <v>4</v>
@@ -25000,7 +25000,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>1.48/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -25010,7 +25010,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -25025,17 +25025,17 @@
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Maissalat 2.95 Schweizer Franken</t>
+          <t>Heringsstücke mit Randen MSC 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="P330" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25109,7 +25109,7 @@
       <c r="O331" t="inlineStr"/>
       <c r="P331" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25187,7 +25187,7 @@
       </c>
       <c r="P332" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25265,7 +25265,7 @@
       </c>
       <c r="P333" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25343,7 +25343,7 @@
       </c>
       <c r="P334" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25417,7 +25417,7 @@
       <c r="O335" t="inlineStr"/>
       <c r="P335" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25491,7 +25491,7 @@
       <c r="O336" t="inlineStr"/>
       <c r="P336" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25565,7 +25565,7 @@
       <c r="O337" t="inlineStr"/>
       <c r="P337" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25643,7 +25643,7 @@
       </c>
       <c r="P338" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25721,7 +25721,7 @@
       </c>
       <c r="P339" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25793,7 +25793,7 @@
       <c r="O340" t="inlineStr"/>
       <c r="P340" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25867,7 +25867,7 @@
       <c r="O341" t="inlineStr"/>
       <c r="P341" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25945,7 +25945,7 @@
       </c>
       <c r="P342" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26023,7 +26023,7 @@
       </c>
       <c r="P343" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26101,7 +26101,7 @@
       </c>
       <c r="P344" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26179,7 +26179,7 @@
       </c>
       <c r="P345" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26257,7 +26257,7 @@
       </c>
       <c r="P346" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26331,7 +26331,7 @@
       <c r="O347" t="inlineStr"/>
       <c r="P347" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26409,7 +26409,7 @@
       </c>
       <c r="P348" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26477,7 +26477,7 @@
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>Prix Garantie Gemüsenuggets 3.45 Schweizer Franken</t>
+          <t>Prix Garantie Gemüsenuggets - Online kein Bestand 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -26487,7 +26487,7 @@
       </c>
       <c r="P349" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26565,7 +26565,7 @@
       </c>
       <c r="P350" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26643,7 +26643,7 @@
       </c>
       <c r="P351" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26717,7 +26717,7 @@
       <c r="O352" t="inlineStr"/>
       <c r="P352" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26791,7 +26791,7 @@
       <c r="O353" t="inlineStr"/>
       <c r="P353" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26869,7 +26869,7 @@
       </c>
       <c r="P354" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26943,7 +26943,7 @@
       <c r="O355" t="inlineStr"/>
       <c r="P355" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27021,7 +27021,7 @@
       </c>
       <c r="P356" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27095,7 +27095,7 @@
       <c r="O357" t="inlineStr"/>
       <c r="P357" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27167,7 +27167,7 @@
       <c r="O358" t="inlineStr"/>
       <c r="P358" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27243,7 +27243,7 @@
       </c>
       <c r="P359" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27321,7 +27321,7 @@
       </c>
       <c r="P360" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27399,7 +27399,7 @@
       </c>
       <c r="P361" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27477,7 +27477,7 @@
       </c>
       <c r="P362" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27547,7 +27547,7 @@
       <c r="O363" t="inlineStr"/>
       <c r="P363" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27625,7 +27625,7 @@
       </c>
       <c r="P364" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27703,7 +27703,7 @@
       </c>
       <c r="P365" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27777,7 +27777,7 @@
       <c r="O366" t="inlineStr"/>
       <c r="P366" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27853,7 +27853,7 @@
       </c>
       <c r="P367" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27927,7 +27927,7 @@
       <c r="O368" t="inlineStr"/>
       <c r="P368" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27999,7 +27999,7 @@
       <c r="O369" t="inlineStr"/>
       <c r="P369" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28077,7 +28077,7 @@
       </c>
       <c r="P370" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28153,7 +28153,7 @@
       </c>
       <c r="P371" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28231,7 +28231,7 @@
       </c>
       <c r="P372" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28309,7 +28309,7 @@
       </c>
       <c r="P373" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28383,7 +28383,7 @@
       <c r="O374" t="inlineStr"/>
       <c r="P374" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28457,7 +28457,7 @@
       <c r="O375" t="inlineStr"/>
       <c r="P375" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28535,37 +28535,37 @@
       </c>
       <c r="P376" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>4069878</t>
+          <t>4106735</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Fairtrade Kokosnuss 1 Stück</t>
+          <t>Naturaplan Bio mélange jeunes pousses région</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/fairtrade-kokosnuss-1-stueck/p/4069878</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-melange-jeunes-pousses-region/p/4106735</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="E377" t="n">
+        <v>1</v>
+      </c>
+      <c r="F377" t="n">
         <v>5</v>
       </c>
-      <c r="F377" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G377" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -28573,72 +28573,72 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>1.95/1ST</t>
+          <t>3.95/100g</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>Fairtrade Kokosnuss 1 Stück 1.95 Schweizer Franken</t>
+          <t>Naturaplan Bio mélange jeunes pousses région 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O377" t="inlineStr"/>
       <c r="P377" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>4106735</t>
+          <t>4069878</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Naturaplan Bio mélange jeunes pousses région</t>
+          <t>Fairtrade Kokosnuss 1 Stück</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-melange-jeunes-pousses-region/p/4106735</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/fairtrade-kokosnuss-1-stueck/p/4069878</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E378" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F378" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -28647,43 +28647,43 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>3.95/100g</t>
+          <t>1.95/1ST</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>Naturaplan Bio mélange jeunes pousses région 3.95 Schweizer Franken</t>
+          <t>Fairtrade Kokosnuss 1 Stück 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O378" t="inlineStr"/>
       <c r="P378" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28757,7 +28757,7 @@
       <c r="O379" t="inlineStr"/>
       <c r="P379" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28831,7 +28831,7 @@
       <c r="O380" t="inlineStr"/>
       <c r="P380" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28907,7 +28907,7 @@
       </c>
       <c r="P381" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28981,7 +28981,7 @@
       <c r="O382" t="inlineStr"/>
       <c r="P382" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -29059,24 +29059,24 @@
       </c>
       <c r="P383" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>6508237</t>
+          <t>6649016</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Gehacktes</t>
+          <t>Naturaplan Bio Kartoffelsalat</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-sensational-gehacktes/p/6508237</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/naturaplan-bio-kartoffelsalat/p/6649016</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -29085,24 +29085,24 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F384" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -29112,7 +29112,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -29122,39 +29122,39 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
         </is>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Gehacktes 5.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Kartoffelsalat 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="P384" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>6649016</t>
+          <t>6508237</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kartoffelsalat</t>
+          <t>Garden Gourmet Sensational Gehacktes</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/naturaplan-bio-kartoffelsalat/p/6649016</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-sensational-gehacktes/p/6508237</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -29163,24 +29163,24 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F385" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -29190,7 +29190,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -29200,22 +29200,22 @@
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kartoffelsalat 3.80 Schweizer Franken</t>
+          <t>Garden Gourmet Sensational Gehacktes 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="P385" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -29289,7 +29289,7 @@
       <c r="O386" t="inlineStr"/>
       <c r="P386" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -29367,7 +29367,7 @@
       </c>
       <c r="P387" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -29439,50 +29439,50 @@
       <c r="O388" t="inlineStr"/>
       <c r="P388" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>6704473</t>
+          <t>6875236</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Yolo Filets</t>
+          <t>Prix Garantie vegetarischer Aufschnitt nature</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-filets/p/6704473</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/prix-garantie-vegetarischer-aufschnitt-nature/p/6875236</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>180g</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="E389" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F389" t="n">
         <v>5</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>3.31/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -29492,7 +29492,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -29507,60 +29507,60 @@
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>Yolo Filets 5.95 Schweizer Franken</t>
+          <t>Prix Garantie vegetarischer Aufschnitt nature 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="P389" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>6875236</t>
+          <t>6704473</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Prix Garantie vegetarischer Aufschnitt nature</t>
+          <t>Yolo Filets</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/prix-garantie-vegetarischer-aufschnitt-nature/p/6875236</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-filets/p/6704473</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>180g</t>
         </is>
       </c>
       <c r="E390" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F390" t="n">
         <v>5</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>3.31/100g</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -29570,7 +29570,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -29585,17 +29585,17 @@
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>Prix Garantie vegetarischer Aufschnitt nature 1.95 Schweizer Franken</t>
+          <t>Yolo Filets 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="P390" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -29673,50 +29673,50 @@
       </c>
       <c r="P391" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>6723052</t>
+          <t>6650171</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Nationalwurst</t>
+          <t>Naturaplan Bio Rotkraut</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-plant-based-nationalwurst/p/6723052</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/naturaplan-bio-rotkraut/p/6650171</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>160g</t>
+          <t>400g</t>
         </is>
       </c>
       <c r="E392" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F392" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>0.74/100g</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -29726,7 +29726,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -29736,65 +29736,61 @@
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Nationalwurst 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O392" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Rotkraut 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O392" t="inlineStr"/>
       <c r="P392" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>4406602</t>
+          <t>6723052</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Betty Bossi Karotten-Stäbchen</t>
+          <t>The Green Mountain plant-based Nationalwurst</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-karotten-staebchen/p/4406602</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-plant-based-nationalwurst/p/6723052</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>400g</t>
+          <t>160g</t>
         </is>
       </c>
       <c r="E393" t="n">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="F393" t="n">
         <v>4.5</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -29804,7 +29800,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -29814,39 +29810,39 @@
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>Betty Bossi Karotten-Stäbchen - Online kein Bestand 3.50 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Nationalwurst 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="P393" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>6650171</t>
+          <t>4406602</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rotkraut</t>
+          <t>Betty Bossi Karotten-Stäbchen</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/naturaplan-bio-rotkraut/p/6650171</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-karotten-staebchen/p/4406602</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -29855,10 +29851,10 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="F394" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -29867,12 +29863,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>0.74/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -29882,7 +29878,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -29892,18 +29888,22 @@
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
         </is>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rotkraut 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O394" t="inlineStr"/>
+          <t>Betty Bossi Karotten-Stäbchen - Online kein Bestand 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="P394" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -29981,7 +29981,7 @@
       </c>
       <c r="P395" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30055,7 +30055,7 @@
       <c r="O396" t="inlineStr"/>
       <c r="P396" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30127,7 +30127,7 @@
       <c r="O397" t="inlineStr"/>
       <c r="P397" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30205,7 +30205,7 @@
       </c>
       <c r="P398" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30271,13 +30271,13 @@
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>Betty Bossi Taboulé mit Poulet 4.95 Schweizer Franken</t>
+          <t>Betty Bossi Taboulé mit Poulet - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O399" t="inlineStr"/>
       <c r="P399" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="P400" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30433,7 +30433,7 @@
       </c>
       <c r="P401" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30507,7 +30507,7 @@
       <c r="O402" t="inlineStr"/>
       <c r="P402" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30585,7 +30585,7 @@
       </c>
       <c r="P403" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30659,50 +30659,50 @@
       <c r="O404" t="inlineStr"/>
       <c r="P404" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>6964029</t>
+          <t>6814802</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Betty Bossi Mungbohnen Sprossen</t>
+          <t>The Green Mountain Aufschnitt</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/betty-bossi-mungbohnen-sprossen/p/6964029</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-aufschnitt/p/6814802</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>250g</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F405" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>3.95/100g</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -30712,7 +30712,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -30722,61 +30722,65 @@
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>Betty Bossi Mungbohnen Sprossen 2.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O405" t="inlineStr"/>
+          <t>The Green Mountain Aufschnitt 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O405" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P405" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>6709223</t>
+          <t>6964029</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Beyond vegane Wurst 2x100g</t>
+          <t>Betty Bossi Mungbohnen Sprossen</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/beyond-vegane-wurst-2x100g/p/6709223</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/betty-bossi-mungbohnen-sprossen/p/6964029</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>200g</t>
+          <t>250g</t>
         </is>
       </c>
       <c r="E406" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F406" t="n">
         <v>5</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>BEYOND MEAT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -30786,7 +30790,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -30796,65 +30800,61 @@
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
         </is>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>Beyond vegane Wurst 2x100g 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O406" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Mungbohnen Sprossen 2.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O406" t="inlineStr"/>
       <c r="P406" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>6728047</t>
+          <t>6709223</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Garden Gourmet vegetarische Nuggets</t>
+          <t>Beyond vegane Wurst 2x100g</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-vegetarische-nuggets/p/6728047</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/beyond-vegane-wurst-2x100g/p/6709223</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>700g</t>
+          <t>200g</t>
         </is>
       </c>
       <c r="E407" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F407" t="n">
         <v>5</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>BEYOND MEAT</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -30864,7 +30864,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -30879,60 +30879,60 @@
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>Garden Gourmet vegetarische Nuggets - Online kein Bestand 13.95 Schweizer Franken</t>
+          <t>Beyond vegane Wurst 2x100g 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>['frozen', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="P407" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>5790342</t>
+          <t>6728047</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Délicorn Quorn Pfeffer Grill Steak</t>
+          <t>Garden Gourmet vegetarische Nuggets</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-quorn-pfeffer-grill-steak/p/5790342</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-vegetarische-nuggets/p/6728047</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>195g</t>
+          <t>700g</t>
         </is>
       </c>
       <c r="E408" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F408" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>2.54/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -30942,7 +30942,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -30957,60 +30957,60 @@
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>Délicorn Quorn Pfeffer Grill Steak 4.95 Schweizer Franken</t>
+          <t>Garden Gourmet vegetarische Nuggets - Online kein Bestand 13.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['frozen', 'vegetarian']</t>
         </is>
       </c>
       <c r="P408" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>6814802</t>
+          <t>5790342</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>The Green Mountain Aufschnitt</t>
+          <t>Délicorn Quorn Pfeffer Grill Steak</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-aufschnitt/p/6814802</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-quorn-pfeffer-grill-steak/p/5790342</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>195g</t>
         </is>
       </c>
       <c r="E409" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F409" t="n">
         <v>4.5</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>3.95/100g</t>
+          <t>2.54/100g</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -31020,7 +31020,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -31035,46 +31035,46 @@
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>The Green Mountain Aufschnitt 3.95 Schweizer Franken</t>
+          <t>Délicorn Quorn Pfeffer Grill Steak 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="P409" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>6683192</t>
+          <t>6101551</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Erdnüsse</t>
+          <t>Délicorn Grillspiesse</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/nuesse-kerne/naturaplan-bio-erdnuesse/p/6683192</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-grillspiesse/p/6101551</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>500g</t>
+          <t>190g</t>
         </is>
       </c>
       <c r="E410" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F410" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -31083,12 +31083,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>0.82/100g</t>
+          <t>3.66/100g</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -31098,7 +31098,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
@@ -31108,48 +31108,52 @@
       </c>
       <c r="M410" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'nuesse-kerne']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Erdnüsse 4.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O410" t="inlineStr"/>
+          <t>Délicorn Grillspiesse 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O410" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P410" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>6101551</t>
+          <t>6683192</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Délicorn Grillspiesse</t>
+          <t>Naturaplan Bio Erdnüsse</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-grillspiesse/p/6101551</t>
+          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/nuesse-kerne/naturaplan-bio-erdnuesse/p/6683192</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>190g</t>
+          <t>500g</t>
         </is>
       </c>
       <c r="E411" t="n">
+        <v>4</v>
+      </c>
+      <c r="F411" t="n">
         <v>5</v>
       </c>
-      <c r="F411" t="n">
-        <v>4.5</v>
-      </c>
       <c r="G411" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -31157,12 +31161,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>3.66/100g</t>
+          <t>0.82/100g</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -31172,7 +31176,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -31182,22 +31186,18 @@
       </c>
       <c r="M411" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'nuesse-kerne']</t>
         </is>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>Délicorn Grillspiesse 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O411" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Erdnüsse 4.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O411" t="inlineStr"/>
       <c r="P411" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31275,7 +31275,7 @@
       </c>
       <c r="P412" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31353,50 +31353,48 @@
       </c>
       <c r="P413" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>6774028</t>
+          <t>4981462</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>festivo geräucherte Stick Vegan Chili</t>
+          <t>Naturaplan Bio Rucola</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/festivo-geraeucherte-stick-vegan-chili/p/6774028</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-rucola/p/4981462</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>70g</t>
-        </is>
-      </c>
-      <c r="E414" t="n">
-        <v>3</v>
-      </c>
+          <t>50g</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr"/>
       <c r="F414" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>festivo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>4.21/100g</t>
+          <t>5.40/100g</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -31406,7 +31404,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -31416,63 +31414,61 @@
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>festivo geräucherte Stick Vegan Chili 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O414" t="inlineStr">
-        <is>
-          <t>['vegan']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Rucola 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O414" t="inlineStr"/>
       <c r="P414" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>4981462</t>
+          <t>6774028</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rucola</t>
+          <t>festivo geräucherte Stick Vegan Chili</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-rucola/p/4981462</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/festivo-geraeucherte-stick-vegan-chili/p/6774028</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>50g</t>
-        </is>
-      </c>
-      <c r="E415" t="inlineStr"/>
+          <t>70g</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>3</v>
+      </c>
       <c r="F415" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>festivo</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>5.40/100g</t>
+          <t>4.21/100g</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -31482,7 +31478,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -31492,18 +31488,22 @@
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rucola 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O415" t="inlineStr"/>
+          <t>festivo geräucherte Stick Vegan Chili 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>['vegan']</t>
+        </is>
+      </c>
       <c r="P415" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31581,7 +31581,7 @@
       </c>
       <c r="P416" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31655,7 +31655,7 @@
       <c r="O417" t="inlineStr"/>
       <c r="P417" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31733,7 +31733,7 @@
       </c>
       <c r="P418" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31811,7 +31811,7 @@
       </c>
       <c r="P419" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31889,7 +31889,7 @@
       </c>
       <c r="P420" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31967,36 +31967,36 @@
       </c>
       <c r="P421" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>4829868</t>
+          <t>5845609</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Pro Montagna Bio Berg-Chilischoten</t>
+          <t>Betty Bossi Kartoffelsalat</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/pro-montagna-bio-berg-chilischoten/p/4829868</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/betty-bossi-kartoffelsalat/p/5845609</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>6g</t>
+          <t>1000g</t>
         </is>
       </c>
       <c r="E422" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F422" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -32005,12 +32005,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>82.50/100g</t>
+          <t>0.75/100g</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -32020,7 +32020,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>82.50</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -32030,61 +32030,65 @@
       </c>
       <c r="M422" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
         </is>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>Pro Montagna Bio Berg-Chilischoten 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O422" t="inlineStr"/>
+          <t>Betty Bossi Kartoffelsalat 7.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P422" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>6862171</t>
+          <t>4829868</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Plant Power Original Tempeh Bio</t>
+          <t>Pro Montagna Bio Berg-Chilischoten</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/plant-power-original-tempeh-bio/p/6862171</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/pro-montagna-bio-berg-chilischoten/p/4829868</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>200g</t>
+          <t>6g</t>
         </is>
       </c>
       <c r="E423" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F423" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>PLANT POWER</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>2.60/100g</t>
+          <t>82.50/100g</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -32094,7 +32098,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>82.50</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -32104,65 +32108,61 @@
       </c>
       <c r="M423" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
         </is>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>Plant Power Original Tempeh Bio 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O423" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Pro Montagna Bio Berg-Chilischoten 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O423" t="inlineStr"/>
       <c r="P423" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>6855352</t>
+          <t>6862171</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Liveg veganer Prosciutto Crudo</t>
+          <t>Plant Power Original Tempeh Bio</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/liveg-veganer-prosciutto-crudo/p/6855352</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/plant-power-original-tempeh-bio/p/6862171</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>90g</t>
+          <t>200g</t>
         </is>
       </c>
       <c r="E424" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F424" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>LIVEG</t>
+          <t>PLANT POWER</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>4.39/100g</t>
+          <t>2.60/100g</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -32172,7 +32172,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -32187,58 +32187,60 @@
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>Liveg veganer Prosciutto Crudo 3.95 Schweizer Franken</t>
+          <t>Plant Power Original Tempeh Bio 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="P424" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>6760813</t>
+          <t>6855352</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Betty Bossi BBQ Mix</t>
+          <t>Liveg veganer Prosciutto Crudo</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/betty-bossi-bbq-mix/p/6760813</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/liveg-veganer-prosciutto-crudo/p/6855352</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>20g</t>
-        </is>
-      </c>
-      <c r="E425" t="inlineStr"/>
+          <t>90g</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
+        <v>6</v>
+      </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>LIVEG</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>12.50/100g</t>
+          <t>4.39/100g</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -32248,7 +32250,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -32258,51 +32260,49 @@
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>Betty Bossi BBQ Mix - Online kein Bestand 2.50 Schweizer Franken</t>
+          <t>Liveg veganer Prosciutto Crudo 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="P425" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>5845609</t>
+          <t>6760813</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Betty Bossi Kartoffelsalat</t>
+          <t>Betty Bossi BBQ Mix</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/betty-bossi-kartoffelsalat/p/5845609</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/betty-bossi-bbq-mix/p/6760813</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>1000g</t>
-        </is>
-      </c>
-      <c r="E426" t="n">
-        <v>1</v>
-      </c>
+          <t>20g</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr"/>
       <c r="F426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -32311,12 +32311,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>0.75/100g</t>
+          <t>12.50/100g</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -32326,7 +32326,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -32336,22 +32336,22 @@
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
         </is>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>Betty Bossi Kartoffelsalat 7.50 Schweizer Franken</t>
+          <t>Betty Bossi BBQ Mix - Online kein Bestand 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="P426" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32429,7 +32429,7 @@
       </c>
       <c r="P427" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32507,7 +32507,7 @@
       </c>
       <c r="P428" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32581,7 +32581,7 @@
       <c r="O429" t="inlineStr"/>
       <c r="P429" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32659,7 +32659,7 @@
       </c>
       <c r="P430" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32735,7 +32735,7 @@
       </c>
       <c r="P431" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32809,7 +32809,7 @@
       <c r="O432" t="inlineStr"/>
       <c r="P432" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32883,7 +32883,7 @@
       <c r="O433" t="inlineStr"/>
       <c r="P433" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32955,7 +32955,7 @@
       <c r="O434" t="inlineStr"/>
       <c r="P434" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -33033,7 +33033,7 @@
       </c>
       <c r="P435" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -33107,7 +33107,7 @@
       <c r="O436" t="inlineStr"/>
       <c r="P436" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -33185,7 +33185,7 @@
       </c>
       <c r="P437" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -33261,7 +33261,7 @@
       </c>
       <c r="P438" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -33335,7 +33335,7 @@
       <c r="O439" t="inlineStr"/>
       <c r="P439" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -33413,7 +33413,7 @@
       </c>
       <c r="P440" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -33489,7 +33489,7 @@
       </c>
       <c r="P441" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -33567,7 +33567,7 @@
       </c>
       <c r="P442" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -33645,7 +33645,7 @@
       </c>
       <c r="P443" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -33719,7 +33719,7 @@
       <c r="O444" t="inlineStr"/>
       <c r="P444" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -33797,7 +33797,7 @@
       </c>
       <c r="P445" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="P446" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -33949,7 +33949,7 @@
       <c r="O447" t="inlineStr"/>
       <c r="P447" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -34023,7 +34023,7 @@
       <c r="O448" t="inlineStr"/>
       <c r="P448" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -34097,7 +34097,7 @@
       <c r="O449" t="inlineStr"/>
       <c r="P449" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -34171,7 +34171,7 @@
       <c r="O450" t="inlineStr"/>
       <c r="P450" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -34245,7 +34245,7 @@
       <c r="O451" t="inlineStr"/>
       <c r="P451" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -34319,7 +34319,7 @@
       <c r="O452" t="inlineStr"/>
       <c r="P452" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -34397,7 +34397,7 @@
       </c>
       <c r="P453" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -34473,7 +34473,7 @@
       </c>
       <c r="P454" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -34545,7 +34545,7 @@
       <c r="O455" t="inlineStr"/>
       <c r="P455" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -34623,7 +34623,7 @@
       </c>
       <c r="P456" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -34697,7 +34697,7 @@
       <c r="O457" t="inlineStr"/>
       <c r="P457" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -34775,7 +34775,7 @@
       </c>
       <c r="P458" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -34853,7 +34853,7 @@
       </c>
       <c r="P459" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -34931,7 +34931,7 @@
       </c>
       <c r="P460" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -35007,7 +35007,7 @@
       </c>
       <c r="P461" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -35085,7 +35085,7 @@
       </c>
       <c r="P462" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -35163,7 +35163,7 @@
       </c>
       <c r="P463" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -35237,7 +35237,7 @@
       <c r="O464" t="inlineStr"/>
       <c r="P464" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="P465" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -35389,7 +35389,7 @@
       <c r="O466" t="inlineStr"/>
       <c r="P466" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -35461,7 +35461,7 @@
       <c r="O467" t="inlineStr"/>
       <c r="P467" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -35539,7 +35539,7 @@
       </c>
       <c r="P468" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -35617,7 +35617,7 @@
       </c>
       <c r="P469" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -35695,7 +35695,7 @@
       </c>
       <c r="P470" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -35767,7 +35767,7 @@
       <c r="O471" t="inlineStr"/>
       <c r="P471" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -35845,7 +35845,7 @@
       </c>
       <c r="P472" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -35917,7 +35917,7 @@
       <c r="O473" t="inlineStr"/>
       <c r="P473" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -35991,7 +35991,7 @@
       <c r="O474" t="inlineStr"/>
       <c r="P474" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -36065,7 +36065,7 @@
       <c r="O475" t="inlineStr"/>
       <c r="P475" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -36143,7 +36143,7 @@
       </c>
       <c r="P476" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -36221,7 +36221,7 @@
       </c>
       <c r="P477" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -36295,7 +36295,7 @@
       <c r="O478" t="inlineStr"/>
       <c r="P478" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -36373,7 +36373,7 @@
       </c>
       <c r="P479" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -36451,36 +36451,34 @@
       </c>
       <c r="P480" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>6871523</t>
+          <t>6984842</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Délicorn Bio Burger</t>
+          <t>Betty Bossi insalata tricolore</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-bio-burger/p/6871523</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-insalata-tricolore/p/6984842</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>190g</t>
-        </is>
-      </c>
-      <c r="E481" t="n">
-        <v>2</v>
-      </c>
+          <t>215g</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr"/>
       <c r="F481" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -36489,12 +36487,12 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>2.61/100g</t>
+          <t>1.84/100g</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -36504,7 +36502,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -36514,49 +36512,51 @@
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>Délicorn Bio Burger 4.95 Schweizer Franken</t>
+          <t>Betty Bossi insalata tricolore 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegetarian', 'gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="P481" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>6984842</t>
+          <t>6871523</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Betty Bossi insalata tricolore</t>
+          <t>Délicorn Bio Burger</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-insalata-tricolore/p/6984842</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-bio-burger/p/6871523</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>215g</t>
-        </is>
-      </c>
-      <c r="E482" t="inlineStr"/>
+          <t>190g</t>
+        </is>
+      </c>
+      <c r="E482" t="n">
+        <v>2</v>
+      </c>
       <c r="F482" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -36565,12 +36565,12 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>1.84/100g</t>
+          <t>2.61/100g</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -36580,7 +36580,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -36590,65 +36590,63 @@
       </c>
       <c r="M482" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>Betty Bossi insalata tricolore 3.95 Schweizer Franken</t>
+          <t>Délicorn Bio Burger 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="P482" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>6878717</t>
+          <t>6862319</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Fisch vom Feld Filees im Backteig</t>
+          <t>Betty Bossi Wähen Mix mit Broccoli</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/fisch-vom-feld-filees-im-backteig/p/6878717</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-waehen-mix-mit-broccoli/p/6862319</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>300g</t>
-        </is>
-      </c>
-      <c r="E483" t="n">
-        <v>3</v>
-      </c>
+          <t>400g</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr"/>
       <c r="F483" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>Findus</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.38/100g</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -36658,7 +36656,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
@@ -36668,63 +36666,61 @@
       </c>
       <c r="M483" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
         </is>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>Fisch vom Feld Filees im Backteig 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O483" t="inlineStr">
-        <is>
-          <t>['frozen', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Wähen Mix mit Broccoli 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O483" t="inlineStr"/>
       <c r="P483" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>6862319</t>
+          <t>6878717</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Betty Bossi Wähen Mix mit Broccoli</t>
+          <t>Fisch vom Feld Filees im Backteig</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-waehen-mix-mit-broccoli/p/6862319</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/fisch-vom-feld-filees-im-backteig/p/6878717</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>400g</t>
-        </is>
-      </c>
-      <c r="E484" t="inlineStr"/>
+          <t>300g</t>
+        </is>
+      </c>
+      <c r="E484" t="n">
+        <v>3</v>
+      </c>
       <c r="F484" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Findus</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>1.38/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -36734,7 +36730,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -36744,18 +36740,22 @@
       </c>
       <c r="M484" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>Betty Bossi Wähen Mix mit Broccoli 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O484" t="inlineStr"/>
+          <t>Fisch vom Feld Filees im Backteig 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
+          <t>['frozen', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P484" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -36833,7 +36833,7 @@
       </c>
       <c r="P485" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -36911,7 +36911,7 @@
       </c>
       <c r="P486" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -36985,7 +36985,7 @@
       <c r="O487" t="inlineStr"/>
       <c r="P487" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -37063,7 +37063,7 @@
       </c>
       <c r="P488" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -37141,50 +37141,50 @@
       </c>
       <c r="P489" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>6032590</t>
+          <t>6875235</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Primagusto Reine Claude</t>
+          <t>Délicorn Würstli vegetarisch</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-gartenfruechte/primagusto-reine-claude/p/6032590</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-wuerstli-vegetarisch/p/6875235</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>750g</t>
+          <t>200g</t>
         </is>
       </c>
       <c r="E490" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F490" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>Primagusto</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>2.25/100g</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -37194,7 +37194,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -37204,61 +37204,65 @@
       </c>
       <c r="M490" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-gartenfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>Primagusto Reine Claude 7.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O490" t="inlineStr"/>
+          <t>Délicorn Würstli vegetarisch 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P490" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>6580156</t>
+          <t>6032590</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Burger vegan tiefgekühlt</t>
+          <t>Primagusto Reine Claude</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-sensational-burger-vegan-tiefgekuehlt/p/6580156</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-gartenfruechte/primagusto-reine-claude/p/6032590</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>226g</t>
+          <t>750g</t>
         </is>
       </c>
       <c r="E491" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F491" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Primagusto</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>3.08/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -37268,7 +37272,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -37278,65 +37282,61 @@
       </c>
       <c r="M491" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-gartenfruechte']</t>
         </is>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Burger vegan tiefgekühlt 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O491" t="inlineStr">
-        <is>
-          <t>['frozen', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Primagusto Reine Claude 7.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O491" t="inlineStr"/>
       <c r="P491" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>6875235</t>
+          <t>6580156</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Délicorn Würstli vegetarisch</t>
+          <t>Garden Gourmet Sensational Burger vegan tiefgekühlt</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-wuerstli-vegetarisch/p/6875235</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-sensational-burger-vegan-tiefgekuehlt/p/6580156</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>200g</t>
+          <t>226g</t>
         </is>
       </c>
       <c r="E492" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F492" t="n">
         <v>3.5</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>2.25/100g</t>
+          <t>3.08/100g</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -37346,7 +37346,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -37361,17 +37361,17 @@
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>Délicorn Würstli vegetarisch 4.50 Schweizer Franken</t>
+          <t>Garden Gourmet Sensational Burger vegan tiefgekühlt 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['frozen', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="P492" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -37445,7 +37445,7 @@
       <c r="O493" t="inlineStr"/>
       <c r="P493" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -37519,7 +37519,7 @@
       <c r="O494" t="inlineStr"/>
       <c r="P494" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -37597,7 +37597,7 @@
       </c>
       <c r="P495" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -37669,7 +37669,7 @@
       <c r="O496" t="inlineStr"/>
       <c r="P496" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -37731,7 +37731,7 @@
       </c>
       <c r="P497" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -37809,7 +37809,7 @@
       </c>
       <c r="P498" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -37883,7 +37883,7 @@
       <c r="O499" t="inlineStr"/>
       <c r="P499" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -37951,7 +37951,7 @@
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>Betty Bossi Caesar Salat 5.95 Schweizer Franken</t>
+          <t>Betty Bossi Caesar Salat - Online kein Bestand 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
@@ -37961,7 +37961,7 @@
       </c>
       <c r="P500" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -38037,7 +38037,7 @@
       </c>
       <c r="P501" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -38111,7 +38111,7 @@
       <c r="O502" t="inlineStr"/>
       <c r="P502" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -38189,7 +38189,7 @@
       </c>
       <c r="P503" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -38267,7 +38267,7 @@
       </c>
       <c r="P504" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -38345,7 +38345,7 @@
       </c>
       <c r="P505" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -38421,7 +38421,7 @@
       </c>
       <c r="P506" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -38499,7 +38499,7 @@
       </c>
       <c r="P507" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -38575,7 +38575,7 @@
       </c>
       <c r="P508" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -38653,7 +38653,7 @@
       </c>
       <c r="P509" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -38727,7 +38727,7 @@
       <c r="O510" t="inlineStr"/>
       <c r="P510" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -38805,7 +38805,7 @@
       </c>
       <c r="P511" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -38879,7 +38879,7 @@
       <c r="O512" t="inlineStr"/>
       <c r="P512" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -38957,7 +38957,7 @@
       </c>
       <c r="P513" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -39035,7 +39035,7 @@
       </c>
       <c r="P514" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -39109,7 +39109,7 @@
       <c r="O515" t="inlineStr"/>
       <c r="P515" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -39183,7 +39183,7 @@
       <c r="O516" t="inlineStr"/>
       <c r="P516" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -39259,7 +39259,7 @@
       </c>
       <c r="P517" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -39337,7 +39337,7 @@
       </c>
       <c r="P518" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -39411,7 +39411,7 @@
       <c r="O519" t="inlineStr"/>
       <c r="P519" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -39489,7 +39489,7 @@
       </c>
       <c r="P520" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -39567,7 +39567,7 @@
       </c>
       <c r="P521" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -39645,7 +39645,7 @@
       </c>
       <c r="P522" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -39721,7 +39721,7 @@
       </c>
       <c r="P523" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -39799,7 +39799,7 @@
       </c>
       <c r="P524" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
@@ -39873,7 +39873,7 @@
       <c r="O525" t="inlineStr"/>
       <c r="P525" t="inlineStr">
         <is>
-          <t>2022-08-02 14:37:58</t>
+          <t>2022-08-02 20:51:22</t>
         </is>
       </c>
     </row>
